--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="10_27" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Liters</t>
   </si>
@@ -37,6 +37,42 @@
   </si>
   <si>
     <t xml:space="preserve">*These values are for non-steady state. </t>
+  </si>
+  <si>
+    <t>Dilution Rate</t>
+  </si>
+  <si>
+    <t>Bubble Flow Measurements</t>
+  </si>
+  <si>
+    <t>50 mL Time (s)</t>
+  </si>
+  <si>
+    <t>Flow (mL/min)</t>
+  </si>
+  <si>
+    <t>GC Measurements</t>
+  </si>
+  <si>
+    <t>Peak Area</t>
+  </si>
+  <si>
+    <t>AVERAGE:</t>
+  </si>
+  <si>
+    <t>Standard Dev.</t>
+  </si>
+  <si>
+    <t>St Dev:</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Dev: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD: </t>
   </si>
 </sst>
 </file>
@@ -68,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -84,6 +120,26 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -94,9 +150,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -106,11 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,108 +469,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.626</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>5.25</v>
       </c>
-      <c r="C3" s="1">
-        <f>B3/2.65</f>
+      <c r="C4" s="1">
+        <f>B4/2.65</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="D3" s="1">
-        <f>A3/C3</f>
+      <c r="D4" s="1">
+        <f>A4/C4</f>
         <v>13.292063492063491</v>
       </c>
-      <c r="E3" s="1">
-        <f>1/D3</f>
+      <c r="E4" s="1">
+        <f>1/D4</f>
         <v>7.5232863625507532E-2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4.7</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C5" si="0">B4/2.65</f>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
         <v>1.7735849056603774</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D5" si="1">A4/C4</f>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
         <v>12.451241134751772</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E5" si="2">1/D4</f>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5.5</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>2.0754716981132075</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>12.125757575757577</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="2"/>
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3">
-        <f>AVERAGE(E4:E5)</f>
+        <f>AVERAGE(E5:E6)</f>
         <v>8.1391176422049266E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E5:E6)</f>
+        <v>1.5243775110677241E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12.84</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>233.64485981308411</v>
+      </c>
+      <c r="F12">
+        <v>14540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12.7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>236.22047244094489</v>
+      </c>
+      <c r="F13">
+        <v>14297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.55</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>239.04382470119521</v>
+      </c>
+      <c r="F14">
+        <v>14693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12.36</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>242.71844660194179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>12.93</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>232.01856148491879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>236.72923300841694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>4.2775762909192965</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F14)</f>
+        <v>14510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F14)</f>
+        <v>199.69727088771143</v>
       </c>
     </row>
   </sheetData>
@@ -523,12 +715,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f>25+55/60</f>
+        <v>25.916666666666668</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>2.2641509433962264</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>11.446527777777778</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>8.7362737365770798E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>23+23/60</f>
+        <v>23.383333333333333</v>
+      </c>
+      <c r="B5">
+        <v>6.15</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>2.3207547169811322</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>10.075745257452574</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>9.9248241638537363E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>5.35</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.0188679245283017</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>11.887850467289722</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>8.4119496855345893E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E5:E6)</f>
+        <v>9.1683869246941635E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E5:E6)</f>
+        <v>1.0697638027035293E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12.25</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>244.89795918367346</v>
+      </c>
+      <c r="F12">
+        <v>14371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11.74</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>255.53662691652471</v>
+      </c>
+      <c r="F13">
+        <v>14899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.08</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>248.34437086092714</v>
+      </c>
+      <c r="F14">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12.4</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>241.93548387096774</v>
+      </c>
+      <c r="F15">
+        <v>13665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11.83</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>253.59256128486896</v>
+      </c>
+      <c r="F16">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>248.86140042339238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>5.7202936540028428</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>13817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>1137.7963350266164</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
     <sheet name="10_27" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="11_2" sheetId="3" r:id="rId3"/>
+    <sheet name="11_5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
   <si>
     <t>Liters</t>
   </si>
@@ -717,7 +718,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f>25+55/60</f>
+        <v>25.916666666666668</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>2.2641509433962264</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>11.446527777777778</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>8.7362737365770798E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>23+23/60</f>
+        <v>23.383333333333333</v>
+      </c>
+      <c r="B5">
+        <v>6.15</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>2.3207547169811322</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>10.075745257452574</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>9.9248241638537363E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>5.35</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.0188679245283017</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>11.887850467289722</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>8.4119496855345893E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E4:E6)</f>
+        <v>9.0243491953218014E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E4:E6)</f>
+        <v>7.96516101052323E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12.25</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>244.89795918367346</v>
+      </c>
+      <c r="F12">
+        <v>14371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11.74</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>255.53662691652471</v>
+      </c>
+      <c r="F13">
+        <v>14899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.08</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>248.34437086092714</v>
+      </c>
+      <c r="F14">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12.4</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>241.93548387096774</v>
+      </c>
+      <c r="F15">
+        <v>13665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11.83</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>253.59256128486896</v>
+      </c>
+      <c r="F16">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>248.86140042339238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>5.7202936540028428</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>13817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>1137.7963350266164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -735,7 +984,7 @@
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.67200000000000004</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -762,23 +1011,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <f>25+55/60</f>
-        <v>25.916666666666668</v>
+        <f>22+50/60</f>
+        <v>22.833333333333332</v>
       </c>
       <c r="B4" s="6">
-        <v>6</v>
+        <v>5.15</v>
       </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>2.2641509433962264</v>
+        <v>1.9433962264150946</v>
       </c>
       <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>11.446527777777778</v>
+        <v>11.749190938511324</v>
       </c>
       <c r="E4" s="6">
         <f>1/D4</f>
-        <v>8.7362737365770798E-2</v>
+        <v>8.5112243492631884E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -786,174 +1035,189 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>23+23/60</f>
-        <v>23.383333333333333</v>
+        <f>20+0.25</f>
+        <v>20.25</v>
       </c>
       <c r="B5">
-        <v>6.15</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>2.3207547169811322</v>
+        <v>1.8301886792452831</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>10.075745257452574</v>
+        <v>11.064432989690722</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>9.9248241638537363E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.0379687863964595E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>24</v>
+        <f>49+50/60</f>
+        <v>49.833333333333336</v>
       </c>
       <c r="B6">
-        <v>5.35</v>
+        <v>11.7</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.0188679245283017</v>
+        <v>4.415094339622641</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>11.887850467289722</v>
+        <v>11.287037037037038</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>8.4119496855345893E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+        <v>8.8597210828547976E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>5.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7" si="3">B7/2.65</f>
+        <v>2.226415094339623</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="4">A7/C7</f>
+        <v>10.77966101694915</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="5">1/D7</f>
+        <v>9.2767295597484298E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
-        <f>AVERAGE(E5:E6)</f>
-        <v>9.1683869246941635E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3">
+        <f>AVERAGE(E4:E7)</f>
+        <v>8.9214109445657191E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5">
-        <f>STDEV(E5:E6)</f>
-        <v>1.0697638027035293E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
+      <c r="E9" s="5">
+        <f>STDEV(E4:E7)</f>
+        <v>3.2243641791387537E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12.25</v>
-      </c>
-      <c r="B12">
-        <f>50/A12*60</f>
-        <v>244.89795918367346</v>
-      </c>
-      <c r="F12">
-        <v>14371</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11.74</v>
+        <v>12.73</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
-        <v>255.53662691652471</v>
+        <f>50/A13*60</f>
+        <v>235.66378633150038</v>
       </c>
       <c r="F13">
-        <v>14899</v>
+        <v>14866</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12.08</v>
+        <v>12.7</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
-        <v>248.34437086092714</v>
+        <f t="shared" ref="B14:B17" si="6">50/A14*60</f>
+        <v>236.22047244094489</v>
       </c>
       <c r="F14">
-        <v>11940</v>
+        <v>15913</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12.4</v>
+        <v>12.77</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
-        <v>241.93548387096774</v>
+        <f t="shared" si="6"/>
+        <v>234.92560689115115</v>
       </c>
       <c r="F15">
-        <v>13665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11.83</v>
+        <v>12.65</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
-        <v>253.59256128486896</v>
-      </c>
-      <c r="F16">
-        <v>14210</v>
+        <f t="shared" si="6"/>
+        <v>237.15415019762844</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17">
+        <v>12.67</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>236.77979479084453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <f>AVERAGE(B12:B16)</f>
-        <v>248.86140042339238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="3">
+        <f>AVERAGE(B13:B17)</f>
+        <v>236.1487621304139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5">
-        <f>STDEV(B12:B16)</f>
-        <v>5.7202936540028428</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B19" s="5">
+        <f>STDEV(B13:B17)</f>
+        <v>0.8867722393224392</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3">
-        <f>AVERAGE(F12:F16)</f>
-        <v>13817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3">
+        <f>AVERAGE(F13:F17)</f>
+        <v>14088.333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="5">
-        <f>STDEV(F12:F16)</f>
-        <v>1137.7963350266164</v>
+      <c r="F20" s="5">
+        <f>STDEV(F13:F17)</f>
+        <v>2313.6889015883949</v>
       </c>
     </row>
   </sheetData>
@@ -961,14 +1225,226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="e">
+        <f>A4/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="6" t="e">
+        <f>1/D4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="e">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="e">
+        <f>AVERAGE(E4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="e">
+        <f>STDEV(E4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12.48</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>240.38461538461539</v>
+      </c>
+      <c r="F12">
+        <v>13870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12.45</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>240.96385542168676</v>
+      </c>
+      <c r="F13">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.59</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>238.28435266084193</v>
+      </c>
+      <c r="F14">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12.57</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>238.6634844868735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>12.36</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>242.71844660194179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>240.20295091119186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>1.8021287650322444</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>14497.333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>547.65074028374454</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Liters</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t xml:space="preserve">OD: </t>
+  </si>
+  <si>
+    <t>z-score</t>
+  </si>
+  <si>
+    <t>Flow rate (mmol/hr)</t>
+  </si>
+  <si>
+    <t>Flux (mmol/g(DCW)/hr</t>
   </si>
 </sst>
 </file>
@@ -472,19 +481,19 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -492,12 +501,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -514,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -541,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -562,7 +571,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -583,7 +592,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -592,7 +601,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -601,7 +610,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -609,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -620,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -632,7 +641,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -644,7 +653,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -656,7 +665,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -665,7 +674,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -674,7 +683,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -683,7 +692,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -699,7 +708,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -715,22 +724,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -738,12 +747,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -760,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -784,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -805,7 +814,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -825,7 +834,7 @@
         <v>8.4119496855345893E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -834,7 +843,7 @@
         <v>9.1683869246941635E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -843,7 +852,7 @@
         <v>1.0697638027035293E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -851,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -861,8 +870,11 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -873,8 +885,12 @@
       <c r="F12">
         <v>14371</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f>(F12-$F$18)/$F$19</f>
+        <v>0.48690612102124614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -885,8 +901,12 @@
       <c r="F13">
         <v>14899</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" ref="G13:G16" si="4">(F13-$F$18)/$F$19</f>
+        <v>0.95096105224727134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -897,8 +917,12 @@
       <c r="F14">
         <v>11940</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>-1.6496801248319115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -909,8 +933,12 @@
       <c r="F15">
         <v>13665</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>-0.13359157111052242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -921,8 +949,12 @@
       <c r="F16">
         <v>14210</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0.34540452267391647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -931,7 +963,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -947,13 +979,31 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5">
         <f>STDEV(F12:F16)</f>
         <v>1137.7963350266164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f>B17*60/1000/22.4</f>
+        <v>0.66659303684837246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f>B20/B1</f>
+        <v>0.99195392388150661</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
+    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
     <sheet name="10_27" sheetId="2" r:id="rId2"/>
     <sheet name="11_2" sheetId="3" r:id="rId3"/>
     <sheet name="11_5" sheetId="4" r:id="rId4"/>
+    <sheet name="11_12" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
   <si>
     <t>Liters</t>
   </si>
@@ -1229,6 +1230,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f>24+7+3/4</f>
+        <v>31.75</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>1.3396226415094339</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>23.700704225352116</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>4.2192839102659335E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>24+40/60</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="B5">
+        <v>3.125</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>1.179245283018868</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>20.917333333333332</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>4.7807241203467625E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>48+20+0.25</f>
+        <v>68.25</v>
+      </c>
+      <c r="B6">
+        <v>8.35</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.1509433962264151</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>21.660179640718564</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>4.616766880917824E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E4:E6)</f>
+        <v>4.538924970510174E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E4:E6)</f>
+        <v>2.8870105582736597E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12.48</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>240.38461538461539</v>
+      </c>
+      <c r="F12">
+        <v>13870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12.45</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>240.96385542168676</v>
+      </c>
+      <c r="F13">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.59</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>238.28435266084193</v>
+      </c>
+      <c r="F14">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12.57</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>238.6634844868735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>12.36</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>242.71844660194179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>240.20295091119186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>1.8021287650322444</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>14497.333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>547.65074028374454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
@@ -1247,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="B1">
-        <v>0.67200000000000004</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,56 +1602,56 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12.48</v>
+        <v>12.8</v>
       </c>
       <c r="B12">
         <f>50/A12*60</f>
-        <v>240.38461538461539</v>
+        <v>234.375</v>
       </c>
       <c r="F12">
-        <v>13870</v>
+        <v>10464</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12.45</v>
+        <v>12.81</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
-        <v>240.96385542168676</v>
+        <v>234.19203747072598</v>
       </c>
       <c r="F13">
-        <v>14880</v>
+        <v>10676</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12.59</v>
+        <v>12.64</v>
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>238.28435266084193</v>
+        <v>237.34177215189871</v>
       </c>
       <c r="F14">
-        <v>14742</v>
+        <v>10245</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12.57</v>
+        <v>12.78</v>
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>238.6634844868735</v>
+        <v>234.74178403755869</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>12.36</v>
+        <v>12.78</v>
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>242.71844660194179</v>
+        <v>234.74178403755869</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1416,7 +1660,7 @@
       </c>
       <c r="B17" s="3">
         <f>AVERAGE(B12:B16)</f>
-        <v>240.20295091119186</v>
+        <v>235.07847553954838</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1425,14 +1669,14 @@
       </c>
       <c r="B18" s="5">
         <f>STDEV(B12:B16)</f>
-        <v>1.8021287650322444</v>
+        <v>1.287428073243424</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="3">
         <f>AVERAGE(F12:F16)</f>
-        <v>14497.333333333334</v>
+        <v>10461.666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1441,7 +1685,7 @@
       </c>
       <c r="F19" s="5">
         <f>STDEV(F12:F16)</f>
-        <v>547.65074028374454</v>
+        <v>215.50947388301361</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
@@ -473,20 +473,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -494,12 +494,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -564,7 +564,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -585,7 +585,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -594,7 +594,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -603,7 +603,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -622,7 +622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -634,7 +634,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -646,7 +646,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -658,7 +658,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -667,7 +667,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -676,7 +676,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,7 +685,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -701,7 +701,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -723,16 +723,16 @@
       <selection activeCell="F20" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -740,12 +740,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -786,7 +786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -807,7 +807,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -827,7 +827,7 @@
         <v>8.4119496855345893E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -836,7 +836,7 @@
         <v>9.0243491953218014E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -845,7 +845,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -864,7 +864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -876,7 +876,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -888,7 +888,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -900,7 +900,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -912,7 +912,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -924,7 +924,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -933,7 +933,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -949,7 +949,7 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -968,19 +968,19 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -988,12 +988,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -1034,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -1055,7 +1055,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -1076,7 +1076,7 @@
         <v>8.8597210828547976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>9.2767295597484298E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>8.9214109445657191E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1230,20 +1230,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1251,12 +1251,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -1297,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -1318,7 +1318,7 @@
         <v>4.7807241203467625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>48+20+0.25</f>
         <v>68.25</v>
@@ -1339,7 +1339,7 @@
         <v>4.616766880917824E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>4.538924970510174E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>238.6634844868735</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.36</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1473,20 +1473,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1494,12 +1494,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -1535,7 +1535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.78</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="11_2" sheetId="3" r:id="rId3"/>
     <sheet name="11_5" sheetId="4" r:id="rId4"/>
     <sheet name="11_12" sheetId="5" r:id="rId5"/>
+    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
   <si>
     <t>Liters</t>
   </si>
@@ -75,13 +76,55 @@
   </si>
   <si>
     <t xml:space="preserve">OD: </t>
+  </si>
+  <si>
+    <t>Methane %</t>
+  </si>
+  <si>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t>Area 2</t>
+  </si>
+  <si>
+    <t>Area 3</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Y-intercept</t>
+  </si>
+  <si>
+    <t>w/o 100%</t>
+  </si>
+  <si>
+    <t>W/ 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Methane: </t>
+  </si>
+  <si>
+    <t>Methane Amount (mL/min):</t>
+  </si>
+  <si>
+    <t>Methane Amount (mmol/min):</t>
+  </si>
+  <si>
+    <t>Methane Amount (mmol/h)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +140,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -158,11 +208,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -170,9 +239,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,6 +255,216 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Methane Standard Curve'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5242782152230968E-3"/>
+                  <c:y val="-0.16702573636628754"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Methane Standard Curve'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0433333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1502.5333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2821.9333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4092.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5239.7333333333327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Methane Standard Curve'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0347887823926161E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0068022390703611E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0076012020505568E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0010971303185108E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="159896320"/>
+        <c:axId val="150531072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="159896320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150531072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150531072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159896320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,22 +754,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -494,12 +777,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -516,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -543,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -564,7 +847,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -585,7 +868,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -594,7 +877,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -603,7 +886,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -611,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -622,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -634,7 +917,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -646,7 +929,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -658,7 +941,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -667,7 +950,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -676,7 +959,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,7 +968,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -701,13 +984,49 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5">
         <f>STDEV(F12:F14)</f>
         <v>199.69727088771143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4971655045194385E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.9115207457996322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.26390717615176928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>15.834430569106157</v>
       </c>
     </row>
   </sheetData>
@@ -717,22 +1036,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="A1:F20"/>
+      <selection activeCell="A21" sqref="A21:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -740,12 +1059,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -762,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -786,7 +1105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -807,7 +1126,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -827,7 +1146,7 @@
         <v>8.4119496855345893E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -836,7 +1155,7 @@
         <v>9.0243491953218014E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -845,7 +1164,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -853,7 +1172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -864,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -876,7 +1195,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -888,7 +1207,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -900,7 +1219,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -912,7 +1231,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -924,7 +1243,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -933,7 +1252,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -949,13 +1268,49 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5">
         <f>STDEV(F12:F16)</f>
         <v>1137.7963350266164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.3830077808006077E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.9303865354987968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.26474939890619631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>15.884963934371779</v>
       </c>
     </row>
   </sheetData>
@@ -965,22 +1320,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -988,12 +1343,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -1034,7 +1389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -1055,7 +1410,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -1076,7 +1431,7 @@
         <v>8.8597210828547976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1096,7 +1451,7 @@
         <v>9.2767295597484298E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1460,7 @@
         <v>8.9214109445657191E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1469,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -1145,7 +1500,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -1157,7 +1512,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -1169,7 +1524,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -1178,7 +1533,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -1187,7 +1542,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1551,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1567,49 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="5">
         <f>STDEV(F13:F17)</f>
         <v>2313.6889015883949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7">
+        <f>F19*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4277044556958109E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <f>B18*F22</f>
+        <v>5.73299402031056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <f>B24/22.4</f>
+        <v>0.25593723304957861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <f>B25*60</f>
+        <v>15.356233982974716</v>
       </c>
     </row>
   </sheetData>
@@ -1228,22 +1619,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1251,12 +1642,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -1297,7 +1688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -1318,7 +1709,7 @@
         <v>4.7807241203467625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>48+20+0.25</f>
         <v>68.25</v>
@@ -1339,7 +1730,7 @@
         <v>4.616766880917824E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1739,7 @@
         <v>4.538924970510174E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1748,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -1388,7 +1779,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -1400,7 +1791,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -1412,7 +1803,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -1421,7 +1812,7 @@
         <v>238.6634844868735</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.36</v>
       </c>
@@ -1430,7 +1821,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1439,7 +1830,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1455,13 +1846,49 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5">
         <f>STDEV(F12:F16)</f>
         <v>547.65074028374454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.4950789275587283E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.9932532115593844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.26755594694461537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>16.053356816676924</v>
       </c>
     </row>
   </sheetData>
@@ -1471,22 +1898,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1494,12 +1921,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1516,26 +1943,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>48.25</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5.95</v>
+      </c>
       <c r="C4" s="6">
         <f>B4/2.65</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="e">
+        <v>2.2452830188679247</v>
+      </c>
+      <c r="D4" s="6">
         <f>A4/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="6" t="e">
+        <v>21.489495798319325</v>
+      </c>
+      <c r="E4" s="6">
         <f>1/D4</f>
-        <v>#DIV/0!</v>
+        <v>4.6534363085345594E-2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
         <v>0</v>
@@ -1549,7 +1980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1563,7 +1994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +2003,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1581,7 +2012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +2020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1600,7 +2031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -1612,7 +2043,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -1624,7 +2055,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -1636,7 +2067,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -1645,7 +2076,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.78</v>
       </c>
@@ -1654,7 +2085,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +2094,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +2110,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1688,7 +2119,303 @@
         <v>215.50947388301361</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>1.8302845258925997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>4.3026049615045743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.19208057863859707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>11.524834718315823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>0/28</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15.13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>5.0433333333333339</v>
+      </c>
+      <c r="F2">
+        <f>STDEV(B2:D2)</f>
+        <v>8.7353095728390375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>0.056/28.056</f>
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="B3">
+        <v>619.20000000000005</v>
+      </c>
+      <c r="C3">
+        <v>598.70000000000005</v>
+      </c>
+      <c r="D3">
+        <v>597.70000000000005</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">AVERAGE(B3:D3)</f>
+        <v>605.20000000000005</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">STDEV(B3:D3)</f>
+        <v>12.134661099511597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>0.112/28.112</f>
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="B4">
+        <v>1474.2</v>
+      </c>
+      <c r="C4">
+        <v>1505.6</v>
+      </c>
+      <c r="D4">
+        <v>1527.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1502.5333333333335</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>26.931270548069776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f>0.17/28.17</f>
+        <v>6.0347887823926161E-3</v>
+      </c>
+      <c r="B5">
+        <v>2848.5</v>
+      </c>
+      <c r="C5">
+        <v>2757.7</v>
+      </c>
+      <c r="D5">
+        <v>2859.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2821.9333333333329</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>55.90387583462654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>0.226/28.226</f>
+        <v>8.0068022390703611E-3</v>
+      </c>
+      <c r="B6">
+        <v>4096.3</v>
+      </c>
+      <c r="C6">
+        <v>3929.5</v>
+      </c>
+      <c r="D6">
+        <v>4250.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4092.2000000000003</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>160.68923423801618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f>0.285/28.285</f>
+        <v>1.0076012020505568E-2</v>
+      </c>
+      <c r="B7">
+        <v>5090.3</v>
+      </c>
+      <c r="C7">
+        <v>5249</v>
+      </c>
+      <c r="D7">
+        <v>5379.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5239.7333333333327</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>145.02221668879997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f>1.167/29.167</f>
+        <v>4.0010971303185108E-2</v>
+      </c>
+      <c r="B8">
+        <v>23393</v>
+      </c>
+      <c r="C8">
+        <v>23387</v>
+      </c>
+      <c r="D8">
+        <v>24467</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>23749</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>621.81347685620324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f>28/28</f>
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>167429</v>
+      </c>
+      <c r="C9">
+        <v>167356</v>
+      </c>
+      <c r="D9">
+        <v>164347</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>166377.33333333334</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1758.6990456963729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <f>SLOPE(A2:A8,E2:E8)</f>
+        <v>1.6472976005603261E-6</v>
+      </c>
+      <c r="C13" s="5">
+        <f>INTERCEPT(A2:A8,E2:E8)</f>
+        <v>1.0693668610640503E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f>SLOPE(A2:A9,E2:E9)</f>
+        <v>6.0705449754459408E-6</v>
+      </c>
+      <c r="C14">
+        <f>INTERCEPT(A2:A9,E2:E9)</f>
+        <v>-2.1333513930758413E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="11_2" sheetId="3" r:id="rId3"/>
     <sheet name="11_5" sheetId="4" r:id="rId4"/>
     <sheet name="11_12" sheetId="5" r:id="rId5"/>
-    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId6"/>
+    <sheet name="11_19" sheetId="7" r:id="rId6"/>
+    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
   <si>
     <t>Liters</t>
   </si>
@@ -384,11 +385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159896320"/>
-        <c:axId val="150531072"/>
+        <c:axId val="145475072"/>
+        <c:axId val="145476608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159896320"/>
+        <c:axId val="145475072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,12 +399,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150531072"/>
+        <c:crossAx val="145476608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150531072"/>
+        <c:axId val="145476608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -415,7 +416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159896320"/>
+        <c:crossAx val="145475072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1622,7 +1623,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,6 +2162,283 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>20.25</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/2.65</f>
+        <v>1.3396226415094339</v>
+      </c>
+      <c r="D4" s="6">
+        <f>A4/C4</f>
+        <v>15.116197183098592</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/D4</f>
+        <v>6.6154204518984391E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>20+25/60</f>
+        <v>20.416666666666668</v>
+      </c>
+      <c r="B5">
+        <v>3.95</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
+        <v>1.4905660377358492</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
+        <v>13.697257383966244</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">1/D5</f>
+        <v>7.3007316134000771E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>29.75</v>
+      </c>
+      <c r="B6">
+        <v>5.7</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.1509433962264151</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>13.831140350877194</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>7.2300618360551766E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(E4:E6)</f>
+        <v>7.0487379671178976E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <f>STDEV(E4:E6)</f>
+        <v>3.769238730890744E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12.85</v>
+      </c>
+      <c r="B12">
+        <f>50/A12*60</f>
+        <v>233.46303501945525</v>
+      </c>
+      <c r="F12">
+        <v>12209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12.8</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <v>234.375</v>
+      </c>
+      <c r="F13">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.83</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>233.8269680436477</v>
+      </c>
+      <c r="F14">
+        <v>12671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12.83</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>233.8269680436477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>12.86</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>233.28149300155525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>233.75469282166114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>STDEV(B12:B16)</f>
+        <v>0.41958633028881864</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <f>AVERAGE(F12:F16)</f>
+        <v>12611.666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f>STDEV(F12:F16)</f>
+        <v>376.52268634616604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
+        <v>2.1844535100130694E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>B17*F21</f>
+        <v>5.1062625921630449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>B23/22.4</f>
+        <v>0.22795815143585024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B24*60</f>
+        <v>13.677489086151015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="11_12" sheetId="5" r:id="rId5"/>
     <sheet name="11_19" sheetId="7" r:id="rId6"/>
     <sheet name="Methane Standard Curve" sheetId="6" r:id="rId7"/>
+    <sheet name="Compilation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
   <si>
     <t>Liters</t>
   </si>
@@ -119,6 +120,75 @@
   </si>
   <si>
     <t>Methane Amount (mmol/h)</t>
+  </si>
+  <si>
+    <t>Methane Amount (mL/(1 L) min):</t>
+  </si>
+  <si>
+    <t>Methane Amount (mmol/(1 L) min):</t>
+  </si>
+  <si>
+    <t>Methane Amount (mmol/(1 L) h)</t>
+  </si>
+  <si>
+    <t>Methane Amount (mmol/(gDCW)h</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Concerns/Notes/Comments</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>Very soon after previous; I think this may not have reached steady state</t>
+  </si>
+  <si>
+    <t>Only one growth point, but rate matches previous w/o change in rate I think</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Kyle's Way</t>
+  </si>
+  <si>
+    <t>Yield (kyle's way)</t>
+  </si>
+  <si>
+    <t>OD660/CH4</t>
+  </si>
+  <si>
+    <t>x 0.34</t>
+  </si>
+  <si>
+    <t>Div. by t1/2</t>
+  </si>
+  <si>
+    <t>t 1/2</t>
+  </si>
+  <si>
+    <t>Mult by 22400</t>
+  </si>
+  <si>
+    <t>My yield his way</t>
+  </si>
+  <si>
+    <t>ln(2)</t>
+  </si>
+  <si>
+    <t>my adj. yield</t>
+  </si>
+  <si>
+    <t>adj by ln(2)</t>
+  </si>
+  <si>
+    <t>His yield w/my #s</t>
   </si>
 </sst>
 </file>
@@ -149,15 +219,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -227,12 +303,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,6 +334,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,11 +482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145475072"/>
-        <c:axId val="145476608"/>
+        <c:axId val="98368512"/>
+        <c:axId val="98378496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145475072"/>
+        <c:axId val="98368512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,12 +496,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145476608"/>
+        <c:crossAx val="98378496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145476608"/>
+        <c:axId val="98378496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -416,11 +513,150 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145475072"/>
+        <c:crossAx val="98368512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compilation!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0243491953218014E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9214109445657191E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6534363085345594E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0487379671178976E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compilation!$C$8:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.815665436444306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.678400542591753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.038398536538562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.475688694632385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="104011264"/>
+        <c:axId val="104012800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="104011264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104012800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="104012800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104011264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -447,6 +683,41 @@
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -755,22 +1026,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F25"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -778,12 +1049,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -800,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -827,7 +1098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -848,7 +1119,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -869,7 +1140,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -878,7 +1149,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -887,7 +1158,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -895,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -906,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -918,7 +1189,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -930,7 +1201,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -942,7 +1213,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -951,7 +1222,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -960,7 +1231,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -969,7 +1240,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1256,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1265,7 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -1003,7 +1274,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1012,7 +1283,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1021,13 +1292,22 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
         <f>B24*60</f>
         <v>15.834430569106157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>38.325178064445147</v>
       </c>
     </row>
   </sheetData>
@@ -1037,22 +1317,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1060,12 +1340,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -1106,7 +1386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -1127,7 +1407,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -1146,8 +1426,11 @@
         <f t="shared" si="2"/>
         <v>8.4119496855345893E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1155,8 +1438,12 @@
         <f>AVERAGE(E4:E6)</f>
         <v>9.0243491953218014E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>460.85130277489986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1165,7 +1452,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -1196,7 +1483,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -1208,7 +1495,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -1220,7 +1507,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -1232,7 +1519,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -1244,7 +1531,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1540,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1556,7 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1278,16 +1565,16 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1583,7 @@
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1305,13 +1592,71 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
         <f>B24*60</f>
         <v>15.884963934371779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>35.815665436444306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B1/B23</f>
+        <v>0.11331470486408675</v>
+      </c>
+      <c r="C31">
+        <f>B31*0.34</f>
+        <v>3.8526999653789494E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/F7</f>
+        <v>8.3599632727105001E-5</v>
+      </c>
+      <c r="E31">
+        <f>D31*22400</f>
+        <v>1.872631773087152</v>
+      </c>
+      <c r="F31">
+        <f>E31/0.34*0.66</f>
+        <v>3.6351087359927066</v>
+      </c>
+      <c r="G31">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
       </c>
     </row>
   </sheetData>
@@ -1321,22 +1666,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1344,12 +1689,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -1390,7 +1735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -1411,7 +1756,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -1432,7 +1777,7 @@
         <v>8.8597210828547976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1451,8 +1796,11 @@
         <f t="shared" ref="E7" si="5">1/D7</f>
         <v>9.2767295597484298E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1460,8 +1808,12 @@
         <f>AVERAGE(E4:E7)</f>
         <v>8.9214109445657191E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f>60*LN(2)/E8</f>
+        <v>466.1687606592053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1822,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -1501,7 +1853,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -1513,7 +1865,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -1525,7 +1877,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -1534,7 +1886,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -1543,7 +1895,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1552,7 +1904,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1920,7 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1577,16 +1929,16 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="15">
         <f>F19*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1947,7 @@
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1604,13 +1956,71 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26">
         <f>B25*60</f>
         <v>15.356233982974716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10">
+        <f>B26/(B1*0.66)</f>
+        <v>32.678400542591753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B1/B24</f>
+        <v>0.12419339658781477</v>
+      </c>
+      <c r="C31">
+        <f>B31*0.34</f>
+        <v>4.2225754839857021E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/F8</f>
+        <v>9.058040435859739E-5</v>
+      </c>
+      <c r="E31">
+        <f>D31*22400</f>
+        <v>2.0290010576325814</v>
+      </c>
+      <c r="F31">
+        <f>E31/0.34*0.66</f>
+        <v>3.9386491118750109</v>
+      </c>
+      <c r="G31">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
       </c>
     </row>
   </sheetData>
@@ -1620,22 +2030,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1643,12 +2053,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -1689,7 +2099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -1710,7 +2120,7 @@
         <v>4.7807241203467625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>48+20+0.25</f>
         <v>68.25</v>
@@ -1730,8 +2140,11 @@
         <f t="shared" si="2"/>
         <v>4.616766880917824E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1739,8 +2152,12 @@
         <f>AVERAGE(E4:E6)</f>
         <v>4.538924970510174E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>916.2705068667866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1749,7 +2166,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1757,7 +2174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1768,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -1780,7 +2197,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -1792,7 +2209,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -1804,7 +2221,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -1813,7 +2230,7 @@
         <v>238.6634844868735</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.36</v>
       </c>
@@ -1822,7 +2239,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +2248,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +2264,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1856,16 +2273,16 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +2291,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1883,13 +2300,71 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
         <f>B24*60</f>
         <v>16.053356816676924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>36.195339142940391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B1/B23</f>
+        <v>0.11212608182545859</v>
+      </c>
+      <c r="C31">
+        <f>B31*0.34</f>
+        <v>3.8122867820655923E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/F7</f>
+        <v>4.1606564366038767E-5</v>
+      </c>
+      <c r="E31">
+        <f>D31*22400</f>
+        <v>0.93198704179926839</v>
+      </c>
+      <c r="F31">
+        <f>E31/0.34*0.66</f>
+        <v>1.8091513164338739</v>
+      </c>
+      <c r="G31">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
       </c>
     </row>
   </sheetData>
@@ -1899,22 +2374,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1922,12 +2397,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1944,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -1967,44 +2442,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <f t="shared" ref="C5:C6" si="0">B5/2.65</f>
-        <v>0</v>
-      </c>
-      <c r="D5" t="e">
-        <f t="shared" ref="D5:D6" si="1">A5/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" t="e">
-        <f t="shared" ref="E5:E6" si="2">1/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="e">
+      <c r="E7" s="3">
         <f>AVERAGE(E4:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>893.72300545558983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2013,7 +2470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -2044,49 +2501,49 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.81</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B16" si="3">50/A13*60</f>
+        <f t="shared" ref="B13:B16" si="0">50/A13*60</f>
         <v>234.19203747072598</v>
       </c>
       <c r="F13">
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.64</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>237.34177215189871</v>
       </c>
       <c r="F14">
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.78</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.78</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2552,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2568,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2120,16 +2577,16 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2138,7 +2595,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2147,13 +2604,71 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
         <f>B24*60</f>
         <v>11.524834718315823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>21.038398536538562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B1/B23</f>
+        <v>0.19290639215684768</v>
+      </c>
+      <c r="C31">
+        <f>B31*0.34</f>
+        <v>6.5588173333328212E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/F7</f>
+        <v>7.3387585340150855E-5</v>
+      </c>
+      <c r="E31">
+        <f>D31*22400</f>
+        <v>1.6438819116193792</v>
+      </c>
+      <c r="F31">
+        <f>E31/0.34*0.66</f>
+        <v>3.1910648872611476</v>
+      </c>
+      <c r="G31">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
       </c>
     </row>
   </sheetData>
@@ -2163,22 +2678,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2186,12 +2701,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2208,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -2231,7 +2746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -2252,7 +2767,7 @@
         <v>7.3007316134000771E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>29.75</v>
       </c>
@@ -2271,8 +2786,11 @@
         <f t="shared" si="2"/>
         <v>7.2300618360551766E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2280,8 +2798,12 @@
         <f>AVERAGE(E4:E6)</f>
         <v>7.0487379671178976E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f>60*LN(2)/E7</f>
+        <v>590.01811427247083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2290,7 +2812,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2309,7 +2831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -2321,7 +2843,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -2333,7 +2855,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -2345,7 +2867,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -2354,7 +2876,7 @@
         <v>233.8269680436477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.86</v>
       </c>
@@ -2363,7 +2885,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2894,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2388,7 +2910,7 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2397,44 +2919,137 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <f>F18*'Methane Standard Curve'!B13+'Methane Standard Curve'!C13</f>
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <f>B17*F21</f>
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <f>B23/22.4</f>
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <f>B24*60</f>
         <v>13.677489086151015</v>
       </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25/(B1*0.66)</f>
+        <v>30.475688694632385</v>
+      </c>
+      <c r="C26">
+        <f>B25/(B1*0.34)</f>
+        <v>59.158689818992265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B1/B23</f>
+        <v>0.13316980623825453</v>
+      </c>
+      <c r="C31">
+        <f>B31*0.34</f>
+        <v>4.5277734121006545E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/F7</f>
+        <v>7.6739566168806226E-5</v>
+      </c>
+      <c r="E31">
+        <f>D31*22400</f>
+        <v>1.7189662821812595</v>
+      </c>
+      <c r="F31">
+        <f>E31/0.34*0.66</f>
+        <v>3.3368169007047981</v>
+      </c>
+      <c r="G31">
+        <f>2.31*0.66/0.34</f>
+        <v>4.4841176470588238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <f>E31/E35</f>
+        <v>2.4799441307582417</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <f>LN(2)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36">
+        <f>F31*E35</f>
+        <v>2.3129052267683057</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2442,17 +3057,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2472,7 +3087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -2495,7 +3110,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -2518,7 +3133,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -2541,7 +3156,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -2564,7 +3179,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -2587,7 +3202,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -2610,7 +3225,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -2633,7 +3248,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -2656,8 +3271,8 @@
         <v>1758.6990456963729</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -2666,7 +3281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2679,7 +3294,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2690,6 +3305,942 @@
       <c r="C14">
         <f>INTERCEPT(A2:A9,E2:E9)</f>
         <v>-2.1333513930758413E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>42304</v>
+      </c>
+      <c r="B2">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D2" s="14">
+        <f>B2/C2*1000</f>
+        <v>2.5196653713821706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>42310</v>
+      </c>
+      <c r="B3">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C3">
+        <v>32.678400542591753</v>
+      </c>
+      <c r="D3" s="14">
+        <f>B3/C3*1000</f>
+        <v>2.730063527111096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>42313</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4.538924970510174E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>36.195339142940391</v>
+      </c>
+      <c r="D4" s="14">
+        <f>B4/C4*1000</f>
+        <v>1.2540081341924529</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>42320</v>
+      </c>
+      <c r="B5">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C5">
+        <v>21.038398536538562</v>
+      </c>
+      <c r="D5" s="14">
+        <f>B5/C5*1000</f>
+        <v>2.2118776295889044</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>42327</v>
+      </c>
+      <c r="B6">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C6">
+        <v>30.475688694632385</v>
+      </c>
+      <c r="D6" s="14">
+        <f>B6/C6*1000</f>
+        <v>2.3129052267683048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C9">
+        <v>32.678400542591753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C10">
+        <v>21.038398536538562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C11">
+        <v>30.475688694632385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.01</v>
+      </c>
+      <c r="C15">
+        <f>300.87*B15+7.702</f>
+        <v>10.710699999999999</v>
+      </c>
+      <c r="D15" s="14">
+        <f>B15/C15*1000</f>
+        <v>0.93364579345887766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.02</v>
+      </c>
+      <c r="C16">
+        <f>300.87*B16+7.702</f>
+        <v>13.7194</v>
+      </c>
+      <c r="D16" s="14">
+        <f>B16/C16*1000</f>
+        <v>1.4577896992579851</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.03</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C26" si="0">300.87*B17+7.702</f>
+        <v>16.728099999999998</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" ref="D17:D26" si="1">B17/C17*1000</f>
+        <v>1.7933895660595049</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.04</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>19.736800000000002</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="1"/>
+        <v>2.0266709902314459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.05</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>22.7455</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1982370139148402</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.06</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>25.754199999999997</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="1"/>
+        <v>2.3297170946874686</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>28.762900000000002</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4336906222946921</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.08</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>31.771599999999999</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="1"/>
+        <v>2.5179720253307987</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.09</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>34.780299999999997</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="1"/>
+        <v>2.5876717567128518</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>37.789000000000001</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="1"/>
+        <v>2.6462727248670248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.11</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>40.797699999999999</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="1"/>
+        <v>2.6962304247543365</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.12</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>43.806399999999996</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7393257606194532</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.13</v>
+      </c>
+      <c r="C27">
+        <f>300.87*B27+7.702</f>
+        <v>46.815100000000001</v>
+      </c>
+      <c r="D27" s="14">
+        <f>B27/C27*1000</f>
+        <v>2.776881818045887</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C28">
+        <f>300.87*B28+7.702</f>
+        <v>49.823800000000006</v>
+      </c>
+      <c r="D28" s="14">
+        <f>B28/C28*1000</f>
+        <v>2.8099020949827191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.15</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C58" si="2">300.87*B29+7.702</f>
+        <v>52.832499999999996</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" ref="D29:D48" si="3">B29/C29*1000</f>
+        <v>2.839161500970047</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.16</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>55.841200000000001</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="3"/>
+        <v>2.8652679383680866</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.17</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>58.849900000000005</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="3"/>
+        <v>2.8887049935513907</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.18</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>61.858599999999996</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="3"/>
+        <v>2.9098621695285702</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.19</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>64.8673</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="3"/>
+        <v>2.9290567049962002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>67.876000000000005</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="3"/>
+        <v>2.9465495904296066</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.21</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>70.884699999999995</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="3"/>
+        <v>2.9625575053572915</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.22</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>73.8934</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="3"/>
+        <v>2.9772618393523644</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.23</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>76.902100000000004</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="3"/>
+        <v>2.9908155954128692</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.24</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>79.910799999999995</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0033487338382296</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.25</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>82.919499999999999</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0149723527035257</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.26</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>85.928200000000004</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0257819900800897</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.27</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>88.936900000000009</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0358602559792391</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>91.945600000000013</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0452789475515956</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>94.954299999999989</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0541007621561107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.3</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>97.962999999999994</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0623806947521004</v>
+      </c>
+      <c r="E44">
+        <f>(10-7.702)/300.87</f>
+        <v>7.6378502343204709E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.31</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>100.9717</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0701671854588959</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.32</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>103.9804</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0775030678858708</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.33</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>106.98910000000001</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0844263574513664</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.34</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>109.99780000000001</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0909709103272971</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.35</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>113.00649999999999</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" ref="D49:D58" si="4">B49/C49*1000</f>
+        <v>3.0971669771207853</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.36</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>116.01519999999999</v>
+      </c>
+      <c r="D50" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1030416704018093</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.37</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>119.0239</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" si="4"/>
+        <v>3.10861936132155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.38</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>122.0326</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1139220175592426</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.39</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>125.04130000000001</v>
+      </c>
+      <c r="D53" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1189694924796849</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.4</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>128.05000000000001</v>
+      </c>
+      <c r="D54" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1237797735259667</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.41</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>131.05869999999999</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1283691963982552</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.42</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>134.06739999999999</v>
+      </c>
+      <c r="D56" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1327526303933695</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.43</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>137.0761</v>
+      </c>
+      <c r="D57" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1369436393361059</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.44</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>140.0848</v>
+      </c>
+      <c r="D58" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1409546217719551</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.45</v>
+      </c>
+      <c r="C59">
+        <f>300.87*B59+7.702</f>
+        <v>143.09350000000001</v>
+      </c>
+      <c r="D59" s="14">
+        <f>B59/C59*1000</f>
+        <v>3.1447969334735681</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.46</v>
+      </c>
+      <c r="C60">
+        <f>300.87*B60+7.702</f>
+        <v>146.10220000000001</v>
+      </c>
+      <c r="D60" s="14">
+        <f>B60/C60*1000</f>
+        <v>3.1484809948104817</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.47</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:C70" si="5">300.87*B61+7.702</f>
+        <v>149.11089999999999</v>
+      </c>
+      <c r="D61" s="14">
+        <f t="shared" ref="D61:D70" si="6">B61/C61*1000</f>
+        <v>3.1520163851200684</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.48</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>152.11959999999999</v>
+      </c>
+      <c r="D62" s="14">
+        <f t="shared" si="6"/>
+        <v>3.155411925879374</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.49</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>155.1283</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="6"/>
+        <v>3.158675754198299</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0.5</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>158.137</v>
+      </c>
+      <c r="D64" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1618153879231299</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0.51</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="5"/>
+        <v>161.14570000000001</v>
+      </c>
+      <c r="D65" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1648377834469055</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0.52</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="5"/>
+        <v>164.15440000000001</v>
+      </c>
+      <c r="D66" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1677493871623299</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0.53</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>167.16310000000001</v>
+      </c>
+      <c r="D67" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1705561813582066</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0.54</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>170.17180000000002</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1732637252470739</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>173.18050000000002</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1758771917161575</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>176.18920000000003</v>
+      </c>
+      <c r="D70" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1784014003128451</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C71">
+        <f>300.87*B71+7.702</f>
+        <v>179.19789999999998</v>
+      </c>
+      <c r="D71" s="14">
+        <f>B71/C71*1000</f>
+        <v>3.1808408469072464</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C72">
+        <f>300.87*B72+7.702</f>
+        <v>182.20659999999998</v>
+      </c>
+      <c r="D72" s="14">
+        <f>B72/C72*1000</f>
+        <v>3.1831997304159123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0.59</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:C74" si="7">300.87*B73+7.702</f>
+        <v>185.21529999999998</v>
+      </c>
+      <c r="D73" s="14">
+        <f t="shared" ref="D73:D74" si="8">B73/C73*1000</f>
+        <v>3.1854819769209133</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0.6</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>188.22399999999999</v>
+      </c>
+      <c r="D74" s="14">
+        <f t="shared" si="8"/>
+        <v>3.1876912614756887</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="60">
   <si>
     <t>Liters</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>His yield w/my #s</t>
+  </si>
+  <si>
+    <t>His yield my way his #s</t>
+  </si>
+  <si>
+    <t>d(GR)</t>
+  </si>
+  <si>
+    <t>d(MER)</t>
+  </si>
+  <si>
+    <t>GR</t>
   </si>
 </sst>
 </file>
@@ -482,11 +494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98368512"/>
-        <c:axId val="98378496"/>
+        <c:axId val="138017792"/>
+        <c:axId val="153948928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98368512"/>
+        <c:axId val="138017792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,12 +508,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98378496"/>
+        <c:crossAx val="153948928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98378496"/>
+        <c:axId val="153948928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -513,7 +525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98368512"/>
+        <c:crossAx val="138017792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -563,6 +575,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -618,11 +631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104011264"/>
-        <c:axId val="104012800"/>
+        <c:axId val="153982464"/>
+        <c:axId val="153984000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104011264"/>
+        <c:axId val="153982464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,12 +645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104012800"/>
+        <c:crossAx val="153984000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104012800"/>
+        <c:axId val="153984000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,15 +661,517 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104011264"/>
+        <c:crossAx val="153982464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compilation!$B$15:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compilation!$D$15:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.93364579345887766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4577896992579851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7933895660595049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0266709902314459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1982370139148402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3297170946874686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4336906222946921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5179720253307987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5876717567128518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6462727248670248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6962304247543365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7393257606194532</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.776881818045887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8099020949827191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.839161500970047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8652679383680866</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8887049935513907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9098621695285702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9290567049962002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9465495904296066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9625575053572915</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9772618393523644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9908155954128692</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0033487338382296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0149723527035257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0257819900800897</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0358602559792391</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0452789475515956</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0541007621561107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0623806947521004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0701671854588959</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0775030678858708</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0844263574513664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0909709103272971</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0971669771207853</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1030416704018093</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.10861936132155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1139220175592426</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1189694924796849</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1237797735259667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1283691963982552</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1327526303933695</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1369436393361059</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1409546217719551</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1447969334735681</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1484809948104817</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1520163851200684</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.155411925879374</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.158675754198299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1618153879231299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1648377834469055</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1677493871623299</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1705561813582066</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1732637252470739</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1758771917161575</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1784014003128451</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1808408469072464</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1831997304159123</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1854819769209133</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1876912614756887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174189184"/>
+        <c:axId val="174187648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174189184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Growth Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174187648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="174187648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cell Yields</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174189184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -708,16 +1223,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18097</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -731,6 +1246,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1032,16 +1577,16 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1049,12 +1594,12 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>26+20/60</f>
         <v>26.333333333333332</v>
@@ -1098,7 +1643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>22+1/12</f>
         <v>22.083333333333332</v>
@@ -1119,7 +1664,7 @@
         <v>8.0313278746885014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>25+10/60</f>
         <v>25.166666666666668</v>
@@ -1140,7 +1685,7 @@
         <v>8.2469074097213532E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1694,7 @@
         <v>8.1391176422049266E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1158,7 +1703,7 @@
         <v>1.5243775110677241E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.84</v>
       </c>
@@ -1189,7 +1734,7 @@
         <v>14540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.7</v>
       </c>
@@ -1201,7 +1746,7 @@
         <v>14297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.55</v>
       </c>
@@ -1213,7 +1758,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.36</v>
       </c>
@@ -1222,7 +1767,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.93</v>
       </c>
@@ -1231,7 +1776,7 @@
         <v>232.01856148491879</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1785,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1801,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1810,7 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1819,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1828,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1292,7 +1837,7 @@
         <v>0.26390717615176928</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1301,7 +1846,7 @@
         <v>15.834430569106157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1320,19 +1865,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1340,12 +1885,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>25+55/60</f>
         <v>25.916666666666668</v>
@@ -1386,7 +1931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>23+23/60</f>
         <v>23.383333333333333</v>
@@ -1407,7 +1952,7 @@
         <v>9.9248241638537363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -1430,7 +1975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1988,7 @@
         <v>460.85130277489986</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1997,7 @@
         <v>7.96516101052323E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +2005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +2016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.25</v>
       </c>
@@ -1483,7 +2028,7 @@
         <v>14371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.74</v>
       </c>
@@ -1495,7 +2040,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.08</v>
       </c>
@@ -1507,7 +2052,7 @@
         <v>11940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.4</v>
       </c>
@@ -1519,7 +2064,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11.83</v>
       </c>
@@ -1531,7 +2076,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +2085,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +2101,7 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1565,7 +2110,7 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -1574,7 +2119,7 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1583,7 +2128,7 @@
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1592,7 +2137,7 @@
         <v>0.26474939890619631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +2146,7 @@
         <v>15.884963934371779</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +2155,7 @@
         <v>35.815665436444306</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1633,7 +2178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11331470486408675</v>
@@ -1669,19 +2214,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1689,12 +2234,12 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>22+50/60</f>
         <v>22.833333333333332</v>
@@ -1735,7 +2280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+0.25</f>
         <v>20.25</v>
@@ -1756,7 +2301,7 @@
         <v>9.0379687863964595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>49+50/60</f>
         <v>49.833333333333336</v>
@@ -1777,7 +2322,7 @@
         <v>8.8597210828547976E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1800,7 +2345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +2358,7 @@
         <v>466.1687606592053</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1822,7 +2367,7 @@
         <v>3.2243641791387537E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +2375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +2386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.73</v>
       </c>
@@ -1853,7 +2398,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.7</v>
       </c>
@@ -1865,7 +2410,7 @@
         <v>15913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.77</v>
       </c>
@@ -1877,7 +2422,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12.65</v>
       </c>
@@ -1886,7 +2431,7 @@
         <v>237.15415019762844</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.67</v>
       </c>
@@ -1895,7 +2440,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1904,7 +2449,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +2465,7 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1929,7 +2474,7 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -1938,7 +2483,7 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1947,7 +2492,7 @@
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1956,7 +2501,7 @@
         <v>0.25593723304957861</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1965,7 +2510,7 @@
         <v>15.356233982974716</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1974,7 +2519,7 @@
         <v>32.678400542591753</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1997,7 +2542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B24</f>
         <v>0.12419339658781477</v>
@@ -2032,20 +2577,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2053,12 +2598,12 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>24+7+3/4</f>
         <v>31.75</v>
@@ -2099,7 +2644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24+40/60</f>
         <v>24.666666666666668</v>
@@ -2120,7 +2665,7 @@
         <v>4.7807241203467625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>48+20+0.25</f>
         <v>68.25</v>
@@ -2144,7 +2689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2702,7 @@
         <v>916.2705068667866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2166,7 +2711,7 @@
         <v>2.8870105582736597E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2185,7 +2730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.48</v>
       </c>
@@ -2197,7 +2742,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.45</v>
       </c>
@@ -2209,7 +2754,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.59</v>
       </c>
@@ -2221,7 +2766,7 @@
         <v>14742</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.57</v>
       </c>
@@ -2230,7 +2775,7 @@
         <v>238.6634844868735</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.36</v>
       </c>
@@ -2239,7 +2784,7 @@
         <v>242.71844660194179</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2248,7 +2793,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2264,7 +2809,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2818,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -2282,7 +2827,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2291,7 +2836,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2300,7 +2845,7 @@
         <v>0.26755594694461537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2309,7 +2854,7 @@
         <v>16.053356816676924</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2318,7 +2863,7 @@
         <v>36.195339142940391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2341,7 +2886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.11212608182545859</v>
@@ -2377,19 +2922,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2397,12 +2942,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>48.25</v>
       </c>
@@ -2442,13 +2987,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +3005,7 @@
         <v>893.72300545558983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +3014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +3022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2489,7 +3033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.8</v>
       </c>
@@ -2501,7 +3045,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.81</v>
       </c>
@@ -2513,7 +3057,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.64</v>
       </c>
@@ -2525,7 +3069,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.78</v>
       </c>
@@ -2534,7 +3078,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.78</v>
       </c>
@@ -2543,7 +3087,7 @@
         <v>234.74178403755869</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2552,7 +3096,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2568,7 +3112,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2577,7 +3121,7 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -2586,7 +3130,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2595,7 +3139,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2604,7 +3148,7 @@
         <v>0.19208057863859707</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2613,7 +3157,7 @@
         <v>11.524834718315823</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2622,7 +3166,7 @@
         <v>21.038398536538562</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +3189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.19290639215684768</v>
@@ -2678,22 +3222,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2701,12 +3246,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2723,7 +3268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>20.25</v>
       </c>
@@ -2746,7 +3291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>20+25/60</f>
         <v>20.416666666666668</v>
@@ -2767,7 +3312,7 @@
         <v>7.3007316134000771E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>29.75</v>
       </c>
@@ -2790,7 +3335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2803,7 +3348,7 @@
         <v>590.01811427247083</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2812,7 +3357,7 @@
         <v>3.769238730890744E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2820,7 +3365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2831,7 +3376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12.85</v>
       </c>
@@ -2843,7 +3388,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.8</v>
       </c>
@@ -2855,7 +3400,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12.83</v>
       </c>
@@ -2867,7 +3412,7 @@
         <v>12671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12.83</v>
       </c>
@@ -2876,7 +3421,7 @@
         <v>233.8269680436477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.86</v>
       </c>
@@ -2885,7 +3430,7 @@
         <v>233.28149300155525</v>
       </c>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2894,7 +3439,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2910,7 +3455,7 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2919,7 +3464,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -2928,7 +3473,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2937,7 +3482,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2946,7 +3491,7 @@
         <v>0.22795815143585024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2958,7 +3503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2971,7 +3516,7 @@
         <v>59.158689818992265</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2993,8 +3538,11 @@
       <c r="G30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>B1/B23</f>
         <v>0.13316980623825453</v>
@@ -3019,8 +3567,16 @@
         <f>2.31*0.66/0.34</f>
         <v>4.4841176470588238</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>2.31*LN(2)</f>
+        <v>1.6011699870934737</v>
+      </c>
+      <c r="I31">
+        <f>H31*0.66/0.34</f>
+        <v>3.1081535043579196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>54</v>
       </c>
@@ -3029,7 +3585,7 @@
         <v>2.4799441307582417</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>52</v>
       </c>
@@ -3038,7 +3594,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>53</v>
       </c>
@@ -3057,17 +3613,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3087,7 +3643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>0/28</f>
         <v>0</v>
@@ -3110,7 +3666,7 @@
         <v>8.7353095728390375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>0.056/28.056</f>
         <v>1.996007984031936E-3</v>
@@ -3133,7 +3689,7 @@
         <v>12.134661099511597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>0.112/28.112</f>
         <v>3.9840637450199202E-3</v>
@@ -3156,7 +3712,7 @@
         <v>26.931270548069776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>0.17/28.17</f>
         <v>6.0347887823926161E-3</v>
@@ -3179,7 +3735,7 @@
         <v>55.90387583462654</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>0.226/28.226</f>
         <v>8.0068022390703611E-3</v>
@@ -3202,7 +3758,7 @@
         <v>160.68923423801618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>0.285/28.285</f>
         <v>1.0076012020505568E-2</v>
@@ -3225,7 +3781,7 @@
         <v>145.02221668879997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>1.167/29.167</f>
         <v>4.0010971303185108E-2</v>
@@ -3248,7 +3804,7 @@
         <v>621.81347685620324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>28/28</f>
         <v>1</v>
@@ -3271,8 +3827,8 @@
         <v>1758.6990456963729</v>
       </c>
     </row>
-    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>25</v>
@@ -3281,7 +3837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -3294,7 +3850,7 @@
         <v>1.0693668610640503E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3315,19 +3871,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3344,7 +3900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42304</v>
       </c>
@@ -3359,7 +3915,7 @@
         <v>2.5196653713821706</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42310</v>
       </c>
@@ -3374,7 +3930,7 @@
         <v>2.730063527111096</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42313</v>
       </c>
@@ -3392,7 +3948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>42320</v>
       </c>
@@ -3410,7 +3966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42327</v>
       </c>
@@ -3425,8 +3981,8 @@
         <v>2.3129052267683048</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>9.0243491953218014E-2</v>
       </c>
@@ -3435,7 +3991,7 @@
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8.9214109445657191E-2</v>
       </c>
@@ -3443,7 +3999,7 @@
         <v>32.678400542591753</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4.6534363085345594E-2</v>
       </c>
@@ -3451,7 +4007,7 @@
         <v>21.038398536538562</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7.0487379671178976E-2</v>
       </c>
@@ -3459,7 +4015,24 @@
         <v>30.475688694632385</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.01</v>
       </c>
@@ -3471,8 +4044,16 @@
         <f>B15/C15*1000</f>
         <v>0.93364579345887766</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>B16-B15</f>
+        <v>0.01</v>
+      </c>
+      <c r="G15">
+        <f>C16-C15</f>
+        <v>3.008700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.02</v>
       </c>
@@ -3484,138 +4065,226 @@
         <f>B16/C16*1000</f>
         <v>1.4577896992579851</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" ref="F16:F74" si="0">B17-B16</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G74" si="1">C17-C16</f>
+        <v>3.0086999999999975</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.03</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C26" si="0">300.87*B17+7.702</f>
+        <f t="shared" ref="C17:C26" si="2">300.87*B17+7.702</f>
         <v>16.728099999999998</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" ref="D17:D26" si="1">B17/C17*1000</f>
+        <f t="shared" ref="D17:D26" si="3">B17/C17*1000</f>
         <v>1.7933895660595049</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.04</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.736800000000002</v>
       </c>
       <c r="D18" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0266709902314459</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999975</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.05</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.7455</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1982370139148402</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999975</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.06</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.754199999999997</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3297170946874686</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.762900000000002</v>
       </c>
       <c r="D21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4336906222946921</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999975</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0.08</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.771599999999999</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5179720253307987</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999975</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>0.09</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34.780299999999997</v>
       </c>
       <c r="D23" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5876717567128518</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0.1</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37.789000000000001</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6462727248670248</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999975</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0.11</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40.797699999999999</v>
       </c>
       <c r="D25" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6962304247543365</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999975</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0.12</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43.806399999999996</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7393257606194532</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>0.13</v>
       </c>
@@ -3627,8 +4296,16 @@
         <f>B27/C27*1000</f>
         <v>2.776881818045887</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>0.14000000000000001</v>
       </c>
@@ -3640,402 +4317,650 @@
         <f>B28/C28*1000</f>
         <v>2.8099020949827191</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999904</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>0.15</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C58" si="2">300.87*B29+7.702</f>
+        <f t="shared" ref="C29:C58" si="4">300.87*B29+7.702</f>
         <v>52.832499999999996</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" ref="D29:D48" si="3">B29/C29*1000</f>
+        <f t="shared" ref="D29:D48" si="5">B29/C29*1000</f>
         <v>2.839161500970047</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0.16</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.841200000000001</v>
       </c>
       <c r="D30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8652679383680866</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>0.17</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.849900000000005</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8887049935513907</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999904</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0.18</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.858599999999996</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9098621695285702</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0.19</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.8673</v>
       </c>
       <c r="D33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9290567049962002</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>0.2</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.876000000000005</v>
       </c>
       <c r="D34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9465495904296066</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999904</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0.21</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.884699999999995</v>
       </c>
       <c r="D35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9625575053572915</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0.22</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.8934</v>
       </c>
       <c r="D36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9772618393523644</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>0.23</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.902100000000004</v>
       </c>
       <c r="D37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9908155954128692</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999904</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0.24</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.910799999999995</v>
       </c>
       <c r="D38" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0033487338382296</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>0.25</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82.919499999999999</v>
       </c>
       <c r="D39" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0149723527035257</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>0.26</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>85.928200000000004</v>
       </c>
       <c r="D40" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0257819900800897</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>0.27</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88.936900000000009</v>
       </c>
       <c r="D41" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0358602559792391</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>0.28000000000000003</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91.945600000000013</v>
       </c>
       <c r="D42" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0452789475515956</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999762</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>0.28999999999999998</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94.954299999999989</v>
       </c>
       <c r="D43" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0541007621561107</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>0.3</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97.962999999999994</v>
       </c>
       <c r="D44" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0623806947521004</v>
       </c>
       <c r="E44">
         <f>(10-7.702)/300.87</f>
         <v>7.6378502343204709E-3</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0.31</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100.9717</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0701671854588959</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>0.32</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>103.9804</v>
       </c>
       <c r="D46" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0775030678858708</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>0.33</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106.98910000000001</v>
       </c>
       <c r="D47" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0844263574513664</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>0.34</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>109.99780000000001</v>
       </c>
       <c r="D48" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0909709103272971</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999762</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>0.35</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113.00649999999999</v>
       </c>
       <c r="D49" s="14">
-        <f t="shared" ref="D49:D58" si="4">B49/C49*1000</f>
+        <f t="shared" ref="D49:D58" si="6">B49/C49*1000</f>
         <v>3.0971669771207853</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>0.36</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>116.01519999999999</v>
       </c>
       <c r="D50" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1030416704018093</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>0.37</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>119.0239</v>
       </c>
       <c r="D51" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.10861936132155</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>0.38</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>122.0326</v>
       </c>
       <c r="D52" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1139220175592426</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>0.39</v>
       </c>
       <c r="C53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>125.04130000000001</v>
       </c>
       <c r="D53" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1189694924796849</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>0.4</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128.05000000000001</v>
       </c>
       <c r="D54" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1237797735259667</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999762</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>0.41</v>
       </c>
       <c r="C55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>131.05869999999999</v>
       </c>
       <c r="D55" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1283691963982552</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>0.42</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>134.06739999999999</v>
       </c>
       <c r="D56" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1327526303933695</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>0.43</v>
       </c>
       <c r="C57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137.0761</v>
       </c>
       <c r="D57" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1369436393361059</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>0.44</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>140.0848</v>
       </c>
       <c r="D58" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1409546217719551</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>0.45</v>
       </c>
@@ -4047,8 +4972,16 @@
         <f>B59/C59*1000</f>
         <v>3.1447969334735681</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>0.46</v>
       </c>
@@ -4060,138 +4993,226 @@
         <f>B60/C60*1000</f>
         <v>3.1484809948104817</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999762</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>0.47</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:C70" si="5">300.87*B61+7.702</f>
+        <f t="shared" ref="C61:C70" si="7">300.87*B61+7.702</f>
         <v>149.11089999999999</v>
       </c>
       <c r="D61" s="14">
-        <f t="shared" ref="D61:D70" si="6">B61/C61*1000</f>
+        <f t="shared" ref="D61:D70" si="8">B61/C61*1000</f>
         <v>3.1520163851200684</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>0.48</v>
       </c>
       <c r="C62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>152.11959999999999</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.155411925879374</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>0.49</v>
       </c>
       <c r="C63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>155.1283</v>
       </c>
       <c r="D63" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.158675754198299</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>0.5</v>
       </c>
       <c r="C64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>158.137</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1618153879231299</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>0.51</v>
       </c>
       <c r="C65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>161.14570000000001</v>
       </c>
       <c r="D65" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1648377834469055</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>0.52</v>
       </c>
       <c r="C66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>164.15440000000001</v>
       </c>
       <c r="D66" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1677493871623299</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>0.53</v>
       </c>
       <c r="C67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>167.16310000000001</v>
       </c>
       <c r="D67" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1705561813582066</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>0.54</v>
       </c>
       <c r="C68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170.17180000000002</v>
       </c>
       <c r="D68" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1732637252470739</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>0.55000000000000004</v>
       </c>
       <c r="C69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>173.18050000000002</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1758771917161575</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>0.56000000000000005</v>
       </c>
       <c r="C70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>176.18920000000003</v>
       </c>
       <c r="D70" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1784014003128451</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>3.0086999999999477</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>0.56999999999999995</v>
       </c>
@@ -4203,8 +5224,16 @@
         <f>B71/C71*1000</f>
         <v>3.1808408469072464</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>0.57999999999999996</v>
       </c>
@@ -4216,31 +5245,55 @@
         <f>B72/C72*1000</f>
         <v>3.1831997304159123</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>0.59</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:C74" si="7">300.87*B73+7.702</f>
+        <f t="shared" ref="C73:C74" si="9">300.87*B73+7.702</f>
         <v>185.21529999999998</v>
       </c>
       <c r="D73" s="14">
-        <f t="shared" ref="D73:D74" si="8">B73/C73*1000</f>
+        <f t="shared" ref="D73:D74" si="10">B73/C73*1000</f>
         <v>3.1854819769209133</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>3.0087000000000046</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>0.6</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>188.22399999999999</v>
       </c>
       <c r="D74" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.1876912614756887</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>-188.22399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="10_22" sheetId="1" r:id="rId1"/>
@@ -482,11 +482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98368512"/>
-        <c:axId val="98378496"/>
+        <c:axId val="54219904"/>
+        <c:axId val="54221440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98368512"/>
+        <c:axId val="54219904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,12 +496,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98378496"/>
+        <c:crossAx val="54221440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98378496"/>
+        <c:axId val="54221440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -513,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98368512"/>
+        <c:crossAx val="54219904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -563,6 +563,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -618,11 +619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104011264"/>
-        <c:axId val="104012800"/>
+        <c:axId val="54283264"/>
+        <c:axId val="54293248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104011264"/>
+        <c:axId val="54283264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,12 +633,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104012800"/>
+        <c:crossAx val="54293248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104012800"/>
+        <c:axId val="54293248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,15 +649,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104011264"/>
+        <c:crossAx val="54283264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1240,7 +1237,7 @@
         <v>236.72923300841694</v>
       </c>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>14510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1262,7 @@
         <v>199.69727088771143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>2.4971655045194385E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>5.9115207457996322</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1540,7 +1537,7 @@
         <v>248.86140042339238</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +1553,7 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>1137.7963350266164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -1574,7 +1571,7 @@
         <v>2.3830077808006077E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>5.9303865354987968</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1895,7 +1892,7 @@
         <v>236.77979479084453</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>236.1487621304139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>14088.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1929,7 +1926,7 @@
         <v>2313.6889015883949</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>29</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>2.4277044556958109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>5.73299402031056</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2032,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,7 +2245,7 @@
         <v>240.20295091119186</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2264,7 +2261,7 @@
         <v>14497.333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2270,7 @@
         <v>547.65074028374454</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>2.4950789275587283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2291,7 +2288,7 @@
         <v>5.9932532115593844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2552,7 +2549,7 @@
         <v>235.07847553954838</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>10461.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2577,7 +2574,7 @@
         <v>215.50947388301361</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>1.8302845258925997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2595,7 +2592,7 @@
         <v>4.3026049615045743</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>233.75469282166114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>12611.666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2919,7 +2916,7 @@
         <v>376.52268634616604</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>2.1844535100130694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2937,7 +2934,7 @@
         <v>5.1062625921630449</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3057,7 +3054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3318,7 +3315,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Experimental Results/dilution rate measurements.xlsx
+++ b/Experimental Results/dilution rate measurements.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="10_22" sheetId="1" r:id="rId1"/>
-    <sheet name="10_27" sheetId="2" r:id="rId2"/>
-    <sheet name="11_2" sheetId="3" r:id="rId3"/>
-    <sheet name="11_5" sheetId="4" r:id="rId4"/>
-    <sheet name="11_12" sheetId="5" r:id="rId5"/>
-    <sheet name="11_19" sheetId="7" r:id="rId6"/>
-    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId7"/>
-    <sheet name="Compilation" sheetId="8" r:id="rId8"/>
+    <sheet name="Summary of Results" sheetId="10" r:id="rId1"/>
+    <sheet name="10_22" sheetId="1" r:id="rId2"/>
+    <sheet name="10_27" sheetId="2" r:id="rId3"/>
+    <sheet name="11_2" sheetId="3" r:id="rId4"/>
+    <sheet name="11_5" sheetId="4" r:id="rId5"/>
+    <sheet name="11_12" sheetId="5" r:id="rId6"/>
+    <sheet name="11_19" sheetId="7" r:id="rId7"/>
+    <sheet name="Methane Standard Curve" sheetId="6" r:id="rId8"/>
+    <sheet name="Compilation" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="65">
   <si>
     <t>Liters</t>
   </si>
@@ -189,6 +190,33 @@
   </si>
   <si>
     <t>His yield w/my #s</t>
+  </si>
+  <si>
+    <t>Growth Rate (1/h)</t>
+  </si>
+  <si>
+    <t>MER (mmol/gDCW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield </t>
+  </si>
+  <si>
+    <t>Yield Types</t>
+  </si>
+  <si>
+    <t>Dil. Rate + New OD</t>
+  </si>
+  <si>
+    <t>DT + New OD</t>
+  </si>
+  <si>
+    <t>Dil. Rate + Old OD</t>
+  </si>
+  <si>
+    <t>DT + Old OD</t>
+  </si>
+  <si>
+    <t>Growth, Methane Production, and Yield</t>
   </si>
 </sst>
 </file>
@@ -233,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -318,12 +346,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -340,6 +420,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +449,204 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fitted Growth Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19854203708407417"/>
+                  <c:y val="3.595533609146314E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compilation!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0243491953218014E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9214109445657191E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6534363085345594E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0487379671178976E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compilation!$C$8:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.815665436444306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.678400542591753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.038398536538562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.475688694632385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="58037376"/>
+        <c:axId val="58038912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58037376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Growth Rate (1/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58038912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58038912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MER (mmol/gDCW/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58037376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -482,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54219904"/>
-        <c:axId val="54221440"/>
+        <c:axId val="42181760"/>
+        <c:axId val="42183296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54219904"/>
+        <c:axId val="42181760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,12 +787,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54221440"/>
+        <c:crossAx val="42183296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54221440"/>
+        <c:axId val="42183296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -513,7 +804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54219904"/>
+        <c:crossAx val="42181760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -530,7 +821,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -619,11 +910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54283264"/>
-        <c:axId val="54293248"/>
+        <c:axId val="42200448"/>
+        <c:axId val="41174144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54283264"/>
+        <c:axId val="42200448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,12 +924,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54293248"/>
+        <c:crossAx val="41174144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54293248"/>
+        <c:axId val="41174144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54283264"/>
+        <c:crossAx val="42200448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -667,6 +958,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -701,7 +1029,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1023,6 +1351,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>42304</v>
+      </c>
+      <c r="B3" s="16">
+        <v>9.0243491953218014E-2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>35.815665436444306</v>
+      </c>
+      <c r="D3" s="16">
+        <f>B3/C3*1000</f>
+        <v>2.5196653713821706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>42310</v>
+      </c>
+      <c r="B4" s="16">
+        <v>8.9214109445657191E-2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>32.678400542591753</v>
+      </c>
+      <c r="D4" s="16">
+        <f>B4/C4*1000</f>
+        <v>2.730063527111096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>42313</v>
+      </c>
+      <c r="B5" s="22">
+        <v>4.538924970510174E-2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>36.195339142940391</v>
+      </c>
+      <c r="D5" s="16">
+        <f>B5/C5*1000</f>
+        <v>1.2540081341924529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>42320</v>
+      </c>
+      <c r="B6" s="16">
+        <v>4.6534363085345594E-2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>21.038398536538562</v>
+      </c>
+      <c r="D6" s="16">
+        <f>B6/C6*1000</f>
+        <v>2.2118776295889044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>42327</v>
+      </c>
+      <c r="B7" s="16">
+        <v>7.0487379671178976E-2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>30.475688694632385</v>
+      </c>
+      <c r="D7" s="16">
+        <f>B7/C7*1000</f>
+        <v>2.3129052267683048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>42304</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2.5196653713821706</v>
+      </c>
+      <c r="C11" s="16">
+        <f>B11/LN(2)</f>
+        <v>3.6351087359927061</v>
+      </c>
+      <c r="D11" s="16">
+        <f>B11/0.66*0.34</f>
+        <v>1.2980094337423302</v>
+      </c>
+      <c r="E11" s="16">
+        <f>D11/LN(2)</f>
+        <v>1.8726317730871513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>42310</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2.730063527111096</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" ref="C12:C14" si="0">B12/LN(2)</f>
+        <v>3.9386491118750104</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" ref="D12:D14" si="1">B12/0.66*0.34</f>
+        <v>1.4063963624511708</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" ref="E12:E14" si="2">D12/LN(2)</f>
+        <v>2.0290010576325814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>42320</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2.2118776295889044</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>3.191064887261148</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="1"/>
+        <v>1.1394521122124659</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="2"/>
+        <v>1.6438819116193792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>42327</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2.3129052267683048</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="0"/>
+        <v>3.3368169007047968</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="1"/>
+        <v>1.191496631971551</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>1.718966282181259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1312,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -1661,7 +2219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -2025,12 +2583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -2673,12 +3231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,7 +3608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -3310,12 +3868,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
